--- a/e-paper emulator V2/Game Boy Printer Emulator - Games Support.xlsx
+++ b/e-paper emulator V2/Game Boy Printer Emulator - Games Support.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="72">
   <si>
     <t>Title</t>
   </si>
@@ -58,6 +58,12 @@
     <t>GB/GBC</t>
   </si>
   <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
     <t>Austin Powers: Oh, Behave!</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
     <t>Cardcaptor Sakura: Itsumo Sakura-chan to Issho!</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Cardcaptor Sakura: Tomoe Shōgakkō Daiundōkai</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
     <t>The Legend of Zelda: Link's Awakening DX</t>
   </si>
   <si>
-    <t>Double</t>
-  </si>
-  <si>
     <t>The Little Mermaid 2: Pinball Frenzy</t>
   </si>
   <si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Love Hina Pocket (Japan)</t>
+  </si>
+  <si>
+    <t>Pokémon Picross (Japan, unreleased)</t>
+  </si>
+  <si>
+    <t>Hello Kitty Pocket Camera (Japan, unreleasd)</t>
   </si>
 </sst>
 </file>
@@ -556,13 +562,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -638,22 +644,22 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -668,12 +674,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -688,12 +694,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -708,12 +714,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -728,12 +734,12 @@
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -748,12 +754,12 @@
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -788,12 +794,12 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -808,12 +814,12 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
@@ -828,15 +834,15 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -848,12 +854,12 @@
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -868,12 +874,12 @@
         <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
@@ -885,7 +891,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
@@ -900,12 +906,12 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -914,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
@@ -940,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
@@ -980,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
@@ -1000,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
@@ -1020,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
@@ -1040,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
@@ -1060,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
@@ -1080,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
@@ -1100,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
@@ -1140,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
@@ -1160,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -1180,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -1200,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -1220,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -1228,7 +1234,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>7</v>
@@ -1240,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -1260,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
@@ -1280,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
@@ -1300,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
@@ -1320,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
@@ -1334,13 +1340,13 @@
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
@@ -1354,44 +1360,62 @@
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>54</v>
+      <c r="A41" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>55</v>
+      <c r="A42" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1399,9 +1423,11 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1409,7 +1435,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1418,8 +1444,8 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>59</v>
+      <c r="A46" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -1428,8 +1454,8 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>60</v>
+      <c r="A47" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -1439,7 +1465,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -1449,7 +1475,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -1459,7 +1485,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -1468,8 +1494,8 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>64</v>
+      <c r="A51" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1479,7 +1505,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -1489,7 +1515,7 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -1498,8 +1524,8 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>67</v>
+      <c r="A54" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -1509,7 +1535,7 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -1519,7 +1545,7 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -1527,46 +1553,66 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C56">
+  <conditionalFormatting sqref="B1:C58">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C56">
+  <conditionalFormatting sqref="B1:C58">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C56">
+  <conditionalFormatting sqref="B1:C58">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F56">
+  <conditionalFormatting sqref="B1:F58">
     <cfRule type="containsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F56">
+  <conditionalFormatting sqref="A1:F58">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F56">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F58">
       <formula1>"Standard,Inverted,Custom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B56">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B58">
       <formula1>"GB,GB/GBC,GBC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E56">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E58">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D56">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D58">
       <formula1>"Normal,Double"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C56">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C58">
       <formula1>"Yes,Partial,No"</formula1>
     </dataValidation>
   </dataValidations>
